--- a/SchulterReproduction/SchluterLog.xlsx
+++ b/SchulterReproduction/SchluterLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brendanoconnor/Desktop/APP/MXX-git2-/SchulterReproduction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D86924-8B14-464D-B7C3-649E61B23DA7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBC5130-0132-A146-A43C-FDDCDC5B1B07}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6460" yWindow="2580" windowWidth="28040" windowHeight="17440" xr2:uid="{0E031976-A5C9-AA40-B978-4DA5AD1A59FA}"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="16520" xr2:uid="{0E031976-A5C9-AA40-B978-4DA5AD1A59FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>FileNames</t>
   </si>
@@ -163,13 +163,37 @@
   </si>
   <si>
     <t>SGD</t>
+  </si>
+  <si>
+    <t>64,32,128,65</t>
+  </si>
+  <si>
+    <t>3x4</t>
+  </si>
+  <si>
+    <t>256,65</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Output Model</t>
+  </si>
+  <si>
+    <t>OptimAdamLr1e-2</t>
+  </si>
+  <si>
+    <t>128mel130619</t>
+  </si>
+  <si>
+    <t>VM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -202,6 +226,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -223,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -236,6 +272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,36 +587,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C52FB76-D6A8-4443-9969-C23B8B0F28D6}">
-  <dimension ref="A1:AE3"/>
+  <dimension ref="A1:AF5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -587,94 +624,97 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="X2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>34</v>
+      <c r="AF2" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
@@ -682,94 +722,228 @@
         <v>36</v>
       </c>
       <c r="C3" s="3">
+        <v>22050</v>
+      </c>
+      <c r="D3" s="3">
+        <v>315</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1024</v>
+      </c>
+      <c r="F3" s="3">
+        <v>80</v>
+      </c>
+      <c r="G3" s="4">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="H3" s="3">
+        <v>27.5</v>
+      </c>
+      <c r="I3" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J3" s="3">
+        <v>450</v>
+      </c>
+      <c r="K3" s="3">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="3">
+      <c r="N3" s="3">
         <v>2</v>
       </c>
-      <c r="G3" s="3">
+      <c r="O3" s="3">
         <v>0.5</v>
       </c>
-      <c r="H3" s="3">
+      <c r="P3" s="3">
         <v>2</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="4">
+      <c r="V3" s="4">
         <v>0.01</v>
       </c>
-      <c r="O3" s="3">
+      <c r="W3" s="3">
         <v>0.85</v>
       </c>
-      <c r="P3" s="3">
+      <c r="X3" s="3">
         <v>0.95</v>
       </c>
-      <c r="Q3" s="3" t="b">
+      <c r="Y3" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="R3" s="5">
+      <c r="Z3" s="5">
         <v>1408225</v>
       </c>
-      <c r="S3" s="3">
+      <c r="AA3" s="3">
         <v>50</v>
       </c>
-      <c r="T3" s="3">
+      <c r="AB3" s="3">
         <v>25</v>
       </c>
-      <c r="U3" s="3">
+      <c r="AC3" s="3">
         <v>32</v>
       </c>
-      <c r="V3" s="3">
+      <c r="AD3" s="3">
         <v>40000</v>
       </c>
-      <c r="W3" s="3">
+      <c r="AE3" s="3">
         <v>115</v>
       </c>
-      <c r="X3" s="3">
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="3">
         <v>22050</v>
       </c>
-      <c r="Y3" s="3">
+      <c r="D4" s="3">
         <v>315</v>
       </c>
-      <c r="Z3" s="3">
+      <c r="E4" s="3">
         <v>1024</v>
       </c>
-      <c r="AA3" s="3">
+      <c r="F4" s="3">
         <v>80</v>
       </c>
-      <c r="AB3" s="4">
+      <c r="G4" s="4">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="AC3" s="3">
+      <c r="H4" s="3">
         <v>27.5</v>
       </c>
-      <c r="AD3" s="3">
+      <c r="I4" s="3">
         <v>8000</v>
       </c>
-      <c r="AE3" s="3">
+      <c r="J4" s="3">
         <v>450</v>
+      </c>
+      <c r="K4" s="3">
+        <v>4</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="3">
+        <v>2</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="P4" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V4" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="W4" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="X4" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="Y4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>1408225</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>50</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>25</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>32</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>40000</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>115</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="3">
+        <v>22050</v>
+      </c>
+      <c r="D5" s="3">
+        <v>315</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1024</v>
+      </c>
+      <c r="F5" s="8">
+        <v>80</v>
+      </c>
+      <c r="G5" s="4">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="H5" s="3">
+        <v>27.5</v>
+      </c>
+      <c r="I5" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J5" s="3">
+        <v>450</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SchulterReproduction/SchluterLog.xlsx
+++ b/SchulterReproduction/SchluterLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brendanoconnor/Desktop/APP/MXX-git2-/SchulterReproduction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBC5130-0132-A146-A43C-FDDCDC5B1B07}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EAA162-F3BC-6F46-916C-2C38898B37F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="16520" xr2:uid="{0E031976-A5C9-AA40-B978-4DA5AD1A59FA}"/>
+    <workbookView xWindow="7280" yWindow="2680" windowWidth="28040" windowHeight="16520" xr2:uid="{0E031976-A5C9-AA40-B978-4DA5AD1A59FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,25 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
-  <si>
-    <t>FileNames</t>
-  </si>
-  <si>
-    <t>MachineLocation</t>
-  </si>
-  <si>
-    <t>CNN VARIABLES / CNN VARIABLES / CNN VARIABLES / CNN VARIABLES / CNN VARIABLES / CNN VARIABLES / CNN VARIABLES / CNN VARIABLES /</t>
-  </si>
-  <si>
-    <t>TRAINING / TRAINING / TRAINING / TRAINING /</t>
-  </si>
-  <si>
-    <t>FEATURE EXTRACTION / FEATURE EXTRACTION</t>
-  </si>
-  <si>
-    <t>SessionName</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="64">
   <si>
     <t>n_Conv2DLayers</t>
   </si>
@@ -138,9 +120,6 @@
     <t>max_song_length (s)</t>
   </si>
   <si>
-    <t>jamendo120619A</t>
-  </si>
-  <si>
     <t>Local iMac</t>
   </si>
   <si>
@@ -177,23 +156,80 @@
     <t>Adam</t>
   </si>
   <si>
-    <t>Output Model</t>
-  </si>
-  <si>
-    <t>OptimAdamLr1e-2</t>
-  </si>
-  <si>
-    <t>128mel130619</t>
-  </si>
-  <si>
     <t>VM</t>
+  </si>
+  <si>
+    <t>basic</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>FEATURE EXTRACTION</t>
+  </si>
+  <si>
+    <t>CNN PARAMS</t>
+  </si>
+  <si>
+    <t>TRAIN</t>
+  </si>
+  <si>
+    <t>Machine</t>
+  </si>
+  <si>
+    <t>128mel</t>
+  </si>
+  <si>
+    <t>64,32,128,66</t>
+  </si>
+  <si>
+    <t>3x5</t>
+  </si>
+  <si>
+    <t>256,66</t>
+  </si>
+  <si>
+    <t>Prediction CSV File</t>
+  </si>
+  <si>
+    <t>Model H5 and History File</t>
+  </si>
+  <si>
+    <t>VM_128mel</t>
+  </si>
+  <si>
+    <t>VM_128mel_Lr1e-2</t>
+  </si>
+  <si>
+    <t>VM_128mel_AdamLr1e-2</t>
+  </si>
+  <si>
+    <t>Adam_Lr1e-2</t>
+  </si>
+  <si>
+    <t>Data HDF5 Fil</t>
+  </si>
+  <si>
+    <t>FILE NAMES (WITHOUT EXTENSIONS)</t>
+  </si>
+  <si>
+    <t>EXTRA NOTES</t>
+  </si>
+  <si>
+    <t>Nadine suggested this from slack on 14/6/19</t>
+  </si>
+  <si>
+    <t>With better optimizer</t>
+  </si>
+  <si>
+    <t>VM_EarlyStopping_1250by5Epochs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -238,6 +274,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -247,7 +291,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -255,24 +299,124 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,362 +731,869 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C52FB76-D6A8-4443-9969-C23B8B0F28D6}">
-  <dimension ref="A1:AF5"/>
+  <dimension ref="A1:AH9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="36" style="8" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="18" style="8" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="5"/>
+    <col min="28" max="28" width="10.83203125" style="5"/>
+    <col min="33" max="33" width="17.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="98.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:34" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="N2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="O2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="P2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="Q2" s="15" t="s">
         <v>4</v>
       </c>
+      <c r="R2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG2" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1">
+        <v>22050</v>
+      </c>
+      <c r="F3" s="1">
+        <v>315</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1024</v>
+      </c>
+      <c r="H3" s="1">
+        <v>80</v>
+      </c>
+      <c r="I3" s="2">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="J3" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="K3" s="1">
+        <v>8000</v>
+      </c>
+      <c r="L3" s="4">
+        <v>450</v>
+      </c>
+      <c r="M3" s="1">
+        <v>4</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R3" s="1">
+        <v>2</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="AA3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="6">
+        <v>1408225</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>50</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>25</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>32</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>40000</v>
+      </c>
+      <c r="AG3" s="4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1">
+        <v>22050</v>
+      </c>
+      <c r="F4" s="1">
+        <v>315</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1024</v>
+      </c>
+      <c r="H4" s="1">
+        <v>80</v>
+      </c>
+      <c r="I4" s="2">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="J4" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="K4" s="1">
+        <v>8000</v>
+      </c>
+      <c r="L4" s="4">
+        <v>450</v>
+      </c>
+      <c r="M4" s="1">
+        <v>4</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R4" s="1">
+        <v>2</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB4" s="6">
+        <v>1408225</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>50</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>25</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>32</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>40000</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="1">
+        <v>22050</v>
+      </c>
+      <c r="F5" s="1">
+        <v>315</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1024</v>
+      </c>
+      <c r="H5" s="3">
+        <v>128</v>
+      </c>
+      <c r="I5" s="2">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="J5" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="K5" s="1">
+        <v>8000</v>
+      </c>
+      <c r="L5" s="4">
+        <v>450</v>
+      </c>
+      <c r="M5" s="1">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="N5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R5" s="1">
+        <v>2</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB5" s="6">
+        <v>1408226</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>50</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>25</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>32</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>40000</v>
+      </c>
+      <c r="AG5" s="4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="1">
+        <v>22050</v>
+      </c>
+      <c r="F6" s="1">
+        <v>315</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1024</v>
+      </c>
+      <c r="H6" s="3">
+        <v>128</v>
+      </c>
+      <c r="I6" s="2">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="J6" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="K6" s="1">
+        <v>8000</v>
+      </c>
+      <c r="L6" s="4">
+        <v>450</v>
+      </c>
+      <c r="M6" s="1">
+        <v>4</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="1">
+        <v>2</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="AA6" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="AB6" s="6">
+        <v>1408225</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>50</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>25</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>32</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>40000</v>
+      </c>
+      <c r="AG6" s="4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="1">
+        <v>22050</v>
+      </c>
+      <c r="F7" s="1">
+        <v>315</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1024</v>
+      </c>
+      <c r="H7" s="3">
+        <v>128</v>
+      </c>
+      <c r="I7" s="2">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="J7" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="K7" s="1">
+        <v>8000</v>
+      </c>
+      <c r="L7" s="4">
+        <v>450</v>
+      </c>
+      <c r="M7" s="1">
+        <v>4</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="O7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="P7" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R7" s="1">
+        <v>2</v>
+      </c>
+      <c r="S7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="T7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="U7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="V7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X7" s="18">
+        <v>1E-4</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="AA7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="6">
+        <v>1408225</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>50</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>25</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>32</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>40000</v>
+      </c>
+      <c r="AG7" s="4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="1">
+        <v>22050</v>
+      </c>
+      <c r="F8" s="1">
+        <v>315</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1024</v>
+      </c>
+      <c r="H8" s="1">
+        <v>80</v>
+      </c>
+      <c r="I8" s="2">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="J8" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="K8" s="1">
+        <v>8000</v>
+      </c>
+      <c r="L8" s="4">
+        <v>450</v>
+      </c>
+      <c r="M8" s="1">
+        <v>4</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R8" s="1">
+        <v>2</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X8" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="AA8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="6">
+        <v>1408225</v>
+      </c>
+      <c r="AC8" s="3">
         <v>10</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>48</v>
+      <c r="AD8" s="3">
+        <v>1250</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>32</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>40000</v>
+      </c>
+      <c r="AG8" s="4">
+        <v>115</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="1">
+        <v>22050</v>
+      </c>
+      <c r="F9" s="1">
+        <v>315</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1024</v>
+      </c>
+      <c r="H9" s="1">
+        <v>80</v>
+      </c>
+      <c r="I9" s="2">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="J9" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="K9" s="1">
+        <v>8000</v>
+      </c>
+      <c r="L9" s="4">
+        <v>450</v>
+      </c>
+      <c r="M9" s="1">
+        <v>4</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R9" s="1">
+        <v>2</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="3">
-        <v>22050</v>
-      </c>
-      <c r="D3" s="3">
-        <v>315</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1024</v>
-      </c>
-      <c r="F3" s="3">
-        <v>80</v>
-      </c>
-      <c r="G3" s="4">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="H3" s="3">
-        <v>27.5</v>
-      </c>
-      <c r="I3" s="3">
-        <v>8000</v>
-      </c>
-      <c r="J3" s="3">
-        <v>450</v>
-      </c>
-      <c r="K3" s="3">
-        <v>4</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="3">
-        <v>2</v>
-      </c>
-      <c r="O3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="P3" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" s="3" t="s">
+      <c r="W9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="U3" s="3" t="s">
+      <c r="X9" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="Y9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="V3" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="W3" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="X3" s="3">
-        <v>0.95</v>
-      </c>
-      <c r="Y3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="5">
+      <c r="Z9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB9" s="6">
         <v>1408225</v>
       </c>
-      <c r="AA3" s="3">
-        <v>50</v>
-      </c>
-      <c r="AB3" s="3">
-        <v>25</v>
-      </c>
-      <c r="AC3" s="3">
+      <c r="AC9" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>1250</v>
+      </c>
+      <c r="AE9" s="1">
         <v>32</v>
       </c>
-      <c r="AD3" s="3">
+      <c r="AF9" s="1">
         <v>40000</v>
       </c>
-      <c r="AE3" s="3">
+      <c r="AG9" s="4">
         <v>115</v>
       </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="3">
-        <v>22050</v>
-      </c>
-      <c r="D4" s="3">
-        <v>315</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1024</v>
-      </c>
-      <c r="F4" s="3">
-        <v>80</v>
-      </c>
-      <c r="G4" s="4">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="H4" s="3">
-        <v>27.5</v>
-      </c>
-      <c r="I4" s="3">
-        <v>8000</v>
-      </c>
-      <c r="J4" s="3">
-        <v>450</v>
-      </c>
-      <c r="K4" s="3">
-        <v>4</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="3">
-        <v>2</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="P4" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="V4" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="W4" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="X4" s="3">
-        <v>0.95</v>
-      </c>
-      <c r="Y4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="5">
-        <v>1408225</v>
-      </c>
-      <c r="AA4" s="3">
-        <v>50</v>
-      </c>
-      <c r="AB4" s="3">
-        <v>25</v>
-      </c>
-      <c r="AC4" s="3">
-        <v>32</v>
-      </c>
-      <c r="AD4" s="3">
-        <v>40000</v>
-      </c>
-      <c r="AE4" s="3">
-        <v>115</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="3">
-        <v>22050</v>
-      </c>
-      <c r="D5" s="3">
-        <v>315</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1024</v>
-      </c>
-      <c r="F5" s="8">
-        <v>80</v>
-      </c>
-      <c r="G5" s="4">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="H5" s="3">
-        <v>27.5</v>
-      </c>
-      <c r="I5" s="3">
-        <v>8000</v>
-      </c>
-      <c r="J5" s="3">
-        <v>450</v>
-      </c>
-      <c r="AE5" s="3">
-        <v>115</v>
+      <c r="AH9" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E1:L1"/>
+    <mergeCell ref="M1:AB1"/>
+    <mergeCell ref="AC1:AG1"/>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SchulterReproduction/SchluterLog.xlsx
+++ b/SchulterReproduction/SchluterLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brendanoconnor/Desktop/APP/MXX-git2-/SchulterReproduction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EAA162-F3BC-6F46-916C-2C38898B37F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FEC7A9-9C59-4F43-8E56-50C058142EAD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7280" yWindow="2680" windowWidth="28040" windowHeight="16520" xr2:uid="{0E031976-A5C9-AA40-B978-4DA5AD1A59FA}"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="16500" xr2:uid="{0E031976-A5C9-AA40-B978-4DA5AD1A59FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -388,6 +388,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -397,14 +408,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -412,9 +415,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -734,7 +734,7 @@
   <dimension ref="A1:AH9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -749,152 +749,152 @@
     <col min="34" max="34" width="98.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
       <c r="D1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="11" t="s">
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="10" t="s">
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="10"/>
-      <c r="AH1" s="22" t="s">
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:34" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="R2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="S2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="T2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="U2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="V2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="15" t="s">
+      <c r="W2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="15" t="s">
+      <c r="X2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="15" t="s">
+      <c r="Y2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="15" t="s">
+      <c r="Z2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" s="15" t="s">
+      <c r="AA2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="15" t="s">
+      <c r="AB2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AC2" s="15" t="s">
+      <c r="AC2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="AD2" s="15" t="s">
+      <c r="AD2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AE2" s="15" t="s">
+      <c r="AE2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="AF2" s="15" t="s">
+      <c r="AF2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="AG2" s="15" t="s">
+      <c r="AG2" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       <c r="W7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="X7" s="18">
+      <c r="X7" s="15">
         <v>1E-4</v>
       </c>
       <c r="Y7" s="1">
